--- a/Lab1/LabData/spahgettiData.xlsx
+++ b/Lab1/LabData/spahgettiData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bijan\Documents\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bijan\Desktop\git\MaterialsLab\Lab1\LabData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,33 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
-  <si>
-    <t>Spaghetthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thick </t>
-  </si>
-  <si>
-    <t>Length (cm)</t>
-  </si>
-  <si>
-    <t>weight for buckling(g)</t>
-  </si>
-  <si>
-    <t>weight of 25 cm (g)</t>
-  </si>
-  <si>
-    <t>Diameter (cm)</t>
-  </si>
-  <si>
-    <t>weight of 2cm (g)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+  <si>
+    <t>Thick</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Diameter</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Thin</t>
+    <t>Length(cm)</t>
+  </si>
+  <si>
+    <t>Weight(g)</t>
+  </si>
+  <si>
+    <t>Force(N)</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -368,302 +371,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <f>B3*9.81</f>
+        <v>412.02000000000004</v>
+      </c>
+      <c r="D3">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <f xml:space="preserve"> F3*9.81</f>
+        <v>225.63000000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.183</v>
+      </c>
+      <c r="I3" s="3">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f xml:space="preserve"> J3*(9.81)</f>
+        <v>19.62</v>
+      </c>
+      <c r="L3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C12" si="0">B4*9.81</f>
+        <v>500.31</v>
+      </c>
+      <c r="E4" s="2">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G12" si="1" xml:space="preserve"> F4*9.81</f>
+        <v>274.68</v>
+      </c>
+      <c r="I4" s="3">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K12" si="2" xml:space="preserve"> J4*(9.81)</f>
+        <v>29.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>627.84</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>343.35</v>
+      </c>
+      <c r="I5" s="3">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>78.48</v>
+      </c>
+      <c r="E6" s="2">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>402.21000000000004</v>
+      </c>
+      <c r="I6" s="3">
+        <v>18</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="2"/>
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>1000.62</v>
+      </c>
+      <c r="E7" s="2">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>461.07000000000005</v>
+      </c>
+      <c r="I7" s="3">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="2"/>
+        <v>58.86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>131</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>1285.1100000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>63</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>618.03000000000009</v>
+      </c>
+      <c r="I8" s="3">
+        <v>14</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="2"/>
+        <v>78.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>158</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>1549.98</v>
+      </c>
+      <c r="E9" s="2">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
+        <v>83</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>814.23</v>
+      </c>
+      <c r="I9" s="3">
+        <v>12</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="2"/>
+        <v>98.100000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>197</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>1932.5700000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>981</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
+        <v>15</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="2"/>
+        <v>147.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>329</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>3227.4900000000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>170</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>1667.7</v>
+      </c>
+      <c r="I11" s="3">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3">
+        <v>23</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="2"/>
+        <v>225.63000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B12" s="1">
+        <v>432</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>4237.92</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>325</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>3188.25</v>
+      </c>
+      <c r="I12" s="3">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>42</v>
-      </c>
-      <c r="C4">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="D4">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.09</v>
-      </c>
-      <c r="G4">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>0.183</v>
-      </c>
-      <c r="J4">
-        <v>0.8</v>
-      </c>
-      <c r="K4">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="M4">
-        <v>24</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="P4">
-        <v>0.2</v>
-      </c>
-      <c r="Q4">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>51</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>28</v>
-      </c>
-      <c r="M5">
-        <v>22</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>64</v>
-      </c>
-      <c r="G6">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>35</v>
-      </c>
-      <c r="M6">
-        <v>20</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>41</v>
-      </c>
-      <c r="M7">
-        <v>18</v>
-      </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>102</v>
-      </c>
-      <c r="G8">
-        <v>17</v>
-      </c>
-      <c r="H8">
-        <v>47</v>
-      </c>
-      <c r="M8">
-        <v>16</v>
-      </c>
-      <c r="N8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>131</v>
-      </c>
-      <c r="G9">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>63</v>
-      </c>
-      <c r="M9">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>158</v>
-      </c>
-      <c r="G10">
-        <v>13</v>
-      </c>
-      <c r="H10">
-        <v>83</v>
-      </c>
-      <c r="M10">
-        <v>12</v>
-      </c>
-      <c r="N10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>197</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
-      <c r="N11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>329</v>
-      </c>
-      <c r="G12">
-        <v>9</v>
-      </c>
-      <c r="H12">
-        <v>170</v>
-      </c>
-      <c r="M12">
-        <v>8</v>
-      </c>
-      <c r="N12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>432</v>
-      </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <v>325</v>
-      </c>
-      <c r="M13">
-        <v>6</v>
-      </c>
-      <c r="N13">
+      <c r="J12" s="3">
         <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="2"/>
+        <v>9.81</v>
       </c>
     </row>
   </sheetData>
